--- a/create_data/Digital Skills Workshops 2022.xlsx
+++ b/create_data/Digital Skills Workshops 2022.xlsx
@@ -1,35 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/instructors/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{9031534A-C323-5746-8EA2-042158F0E954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AF6F6B-53BA-7C49-8D71-3A24FE39EDA1}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{9031534A-C323-5746-8EA2-042158F0E954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034243B6-9490-7C46-BE33-7C5E1237EC28}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Validation Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Carpentry">'Validation Data'!$A$20:$A$24</definedName>
     <definedName name="cp">'Validation Data'!$D$2:$D$6</definedName>
-    <definedName name="Curriculum">'Validation Data'!$A$1:$E$6</definedName>
+    <definedName name="Curriculum">'Validation Data'!$A$1:$E$7</definedName>
     <definedName name="dc">'Validation Data'!$B$2:$B$6</definedName>
     <definedName name="dc_astronomy">'Validation Data'!$H$2:$H$3</definedName>
     <definedName name="dc_ecology">'Validation Data'!$I$2:$I$3</definedName>
     <definedName name="dc_genomics">'Validation Data'!$J$2:$J$3</definedName>
     <definedName name="dc_geospatial">'Validation Data'!$L$2:$L$3</definedName>
     <definedName name="dc_socsci">'Validation Data'!$K$2:$K$3</definedName>
-    <definedName name="ds">'Validation Data'!$A$2:$A$6</definedName>
+    <definedName name="ds">'Validation Data'!$A$2:$A$7</definedName>
     <definedName name="Flavor">'Validation Data'!$H$1:$N$3</definedName>
     <definedName name="pilot">'Validation Data'!$E$2:$E$6</definedName>
     <definedName name="swc">'Validation Data'!$C$2:$C$6</definedName>
@@ -51,8 +48,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={26CB6762-394D-4465-87DD-38F14E90E4B7}</author>
+  </authors>
+  <commentList>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{26CB6762-394D-4465-87DD-38F14E90E4B7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I could be a helper for this workshop, but need to be trained first to get certificate before teaching :-)
+Reply:
+    You can be a helper and an instructor without being a certified instructor - we would just like you to do the training eventually :)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="143">
   <si>
     <t>Week of</t>
   </si>
@@ -129,37 +146,175 @@
     <t>repository</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Parallel Programming with Python</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>Johan Hidding</t>
+  </si>
+  <si>
+    <t>Djura Smits</t>
+  </si>
+  <si>
+    <t>Cunliang Geng</t>
+  </si>
+  <si>
+    <t>Francesco Nattino</t>
+  </si>
+  <si>
+    <t>Ou Ku</t>
+  </si>
+  <si>
+    <t>Lourens will also help</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>ds-parallel</t>
+  </si>
+  <si>
+    <t>Netherlands eScience Center</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>228232127437</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Introduction to Deep Learning</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>Sven van den Burg</t>
+  </si>
+  <si>
+    <t>Robin Richardson</t>
+  </si>
+  <si>
+    <t>ds-dl-intro</t>
+  </si>
+  <si>
     <t>GPU programming</t>
   </si>
   <si>
-    <t>Introduction to Deep Learning</t>
-  </si>
-  <si>
-    <t>Code Refinery</t>
+    <t>2022-02-08</t>
+  </si>
+  <si>
+    <t>2022-02-09</t>
+  </si>
+  <si>
+    <t>Alessio Sclocco</t>
   </si>
   <si>
     <t>Hanno Spreeuw</t>
   </si>
   <si>
+    <t>Victor Azizi</t>
+  </si>
+  <si>
+    <t>ds-gpu</t>
+  </si>
+  <si>
+    <t>How to write good code (Code Refinery)</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
+  </si>
+  <si>
+    <t>Sven van der Burg</t>
+  </si>
+  <si>
+    <t>Leon Oostrum</t>
+  </si>
+  <si>
+    <t>Lieke de Boer</t>
+  </si>
+  <si>
+    <t>Robin day 1 and 2</t>
+  </si>
+  <si>
+    <t>ds-cr</t>
+  </si>
+  <si>
     <t>Spring holiday</t>
   </si>
   <si>
-    <t>Astronomy</t>
-  </si>
-  <si>
-    <t>R packages</t>
+    <t>Foundations of Astronomical Data Science</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-09</t>
+  </si>
+  <si>
+    <t>Dafne van Kuppevelt</t>
+  </si>
+  <si>
+    <t>Dafne on Monday and Tuesday</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>dc-astronomy</t>
+  </si>
+  <si>
+    <t>nlesc</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
   </si>
   <si>
     <t>Pablo Rodríguez-Sánchez</t>
   </si>
   <si>
-    <t>Lieke de Boer</t>
-  </si>
-  <si>
     <t>Barbara Vreede</t>
   </si>
   <si>
-    <t>Containers</t>
+    <t>Candace Moore</t>
+  </si>
+  <si>
+    <t>ds-rpackaging</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>Ask Johan, Francesco, Candace, Sarah</t>
+  </si>
+  <si>
+    <t>ds-docker</t>
   </si>
   <si>
     <t>Good Friday</t>
@@ -174,13 +329,46 @@
     <t>May Holidays</t>
   </si>
   <si>
-    <t>tentative workshop</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>dc</t>
+    <t>Hanno, Alessio, maybe Ben</t>
+  </si>
+  <si>
+    <t>Djura, Johan, others interested</t>
+  </si>
+  <si>
+    <t>Ascension day</t>
+  </si>
+  <si>
+    <t>Data Carpentry Social Sciences</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesco, Dafne: could be instructor if needed, but is directly after my holiday, </t>
+  </si>
+  <si>
+    <t>Geospatial Python</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
   </si>
   <si>
     <t>swc</t>
@@ -192,9 +380,6 @@
     <t>pilot</t>
   </si>
   <si>
-    <t>dc-astronomy</t>
-  </si>
-  <si>
     <t>dc-ecology</t>
   </si>
   <si>
@@ -231,157 +416,88 @@
     <t>Helper 3</t>
   </si>
   <si>
-    <t>ds-parallel</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
-    <t>Alessio Sclocco</t>
-  </si>
-  <si>
-    <t>ds-gpu</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>ds-dl-intro</t>
-  </si>
-  <si>
     <t>Ben van Werkhoven</t>
   </si>
   <si>
-    <t>ds-docker</t>
-  </si>
-  <si>
     <t>Carlos Martinez Ortiz</t>
   </si>
   <si>
-    <t>ds-cr</t>
-  </si>
-  <si>
-    <t>Cunliang Geng</t>
-  </si>
-  <si>
-    <t>Dafne van Kuppevelt</t>
-  </si>
-  <si>
-    <t>Djura Smits</t>
-  </si>
-  <si>
     <t>Faruk Diblen</t>
   </si>
   <si>
-    <t>Francesco Nattino</t>
-  </si>
-  <si>
-    <t>Inti Pelupessy</t>
-  </si>
-  <si>
     <t>Jaro Camphuijsen</t>
   </si>
   <si>
     <t>Jesus Garcia González</t>
   </si>
   <si>
-    <t>Johan Hidding</t>
-  </si>
-  <si>
-    <t>Leon Oostrum</t>
+    <t>Lourens Veen</t>
   </si>
   <si>
     <t>Mateusz Kuzak</t>
   </si>
   <si>
-    <t>Ou Ku</t>
-  </si>
-  <si>
     <t>Peter Kalverla</t>
   </si>
   <si>
     <t>Pushpanjali Pawar</t>
   </si>
   <si>
-    <t>Robin Richardson</t>
-  </si>
-  <si>
     <t>Sarah Alidoost</t>
   </si>
   <si>
-    <t>Sven van den Burg</t>
-  </si>
-  <si>
     <t>Thijs van Lankeveld</t>
   </si>
   <si>
-    <t>Victor Azizi</t>
-  </si>
-  <si>
     <t>Yang Liu</t>
   </si>
   <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2021-03-08-swc-nlesc</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Software Carpentry with Python</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-01-12</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-01-27</t>
-  </si>
-  <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>2022-02-08</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-17</t>
-  </si>
-  <si>
-    <t>2022-03-08</t>
-  </si>
-  <si>
-    <t>2022-03-09</t>
-  </si>
-  <si>
-    <t>2022-03-22</t>
-  </si>
-  <si>
-    <t>2022-03-24</t>
-  </si>
-  <si>
-    <t>2022-04-06</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
+    <t>Luisa Orozco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I guess this is not the final date yet? Correct :) </t>
+  </si>
+  <si>
+    <t>Reproducible Computational Environments Using Docker Containers</t>
+  </si>
+  <si>
+    <t>R packaging</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>Science Park 402, 1098 XH Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands eScience Center (in person, Amsterdam)</t>
+  </si>
+  <si>
+    <t>Aron Jansen</t>
+  </si>
+  <si>
+    <t>Suvayu Ali</t>
   </si>
 </sst>
 </file>
@@ -459,7 +575,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -492,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -514,62 +636,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -746,6 +827,49 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <fill>
         <patternFill patternType="none">
@@ -772,21 +896,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,19 +932,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Schedule"/>
-      <sheetName val="Validation Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Cunliang Geng" id="{E5EFCE77-EBFA-E24F-8EA8-47D285FEABD0}" userId="S::c.geng@esciencecenter.nl::a2ff051f-3861-4695-8db8-f1591fa5b36d" providerId="AD"/>
+  <person displayName="Lieke de Boer" id="{4EA08378-6581-6E41-9AF8-7B009F8C449D}" userId="S::l.deboer@esciencecenter.nl::4cd51eb9-54ac-406c-8d37-41bfcac6970c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,36 +945,36 @@
   <tableColumns count="26">
     <tableColumn id="2" xr3:uid="{31ED57F0-08D0-4B39-8085-DB721F2CA194}" name="Week of" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{046F89F5-1EFE-42BB-8CBD-6E9445BCB193}" name="Holiday and conflicts" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{CA527620-8818-4A04-9155-518555BCB1EA}" name="title" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4F673A18-16CF-434B-98FB-8B9732970A9D}" name="startdate" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{CA527620-8818-4A04-9155-518555BCB1EA}" name="title" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4F673A18-16CF-434B-98FB-8B9732970A9D}" name="startdate" dataDxfId="22">
       <calculatedColumnFormula>LEFT(#REF!,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{40A075FB-8096-4DB1-BF39-7234C74CFDCF}" name="enddate" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{0A508EFE-4109-4606-BB19-315EB501E274}" name="lead_instructor" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7D1AA6B2-A370-4E96-B30E-4EA8B743034B}" name="supporting_instructor1" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{F0E2AC5D-8806-4353-B124-0B48DA7B11EA}" name="supporting_instructor2" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{70DDD074-33B8-49EA-AF94-6BA000F8013C}" name="helper1" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{BB43C387-FAFF-4DA0-928E-3C95D1CE2957}" name="helper2" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{EC9756CD-666D-44FA-9312-0F4D8701DD81}" name="helper3" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{461ED2E0-A3DF-41CB-92E0-A4DCA3BC9ED6}" name="Comments" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{98451601-1ECB-4C6B-9478-91ABF4FB04D0}" name="starttime" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{B34968E8-53EF-40B6-A349-9E0BC6407F77}" name="endtime" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{7F8833F9-F100-2E4E-A711-C78FE6C566DE}" name="slug" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{40A075FB-8096-4DB1-BF39-7234C74CFDCF}" name="enddate" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{0A508EFE-4109-4606-BB19-315EB501E274}" name="lead_instructor" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{7D1AA6B2-A370-4E96-B30E-4EA8B743034B}" name="supporting_instructor1" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{F0E2AC5D-8806-4353-B124-0B48DA7B11EA}" name="supporting_instructor2" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{70DDD074-33B8-49EA-AF94-6BA000F8013C}" name="helper1" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{BB43C387-FAFF-4DA0-928E-3C95D1CE2957}" name="helper2" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{EC9756CD-666D-44FA-9312-0F4D8701DD81}" name="helper3" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{461ED2E0-A3DF-41CB-92E0-A4DCA3BC9ED6}" name="Comments" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{98451601-1ECB-4C6B-9478-91ABF4FB04D0}" name="starttime" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B34968E8-53EF-40B6-A349-9E0BC6407F77}" name="endtime" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{7F8833F9-F100-2E4E-A711-C78FE6C566DE}" name="slug" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0AD5F170-0BCD-457D-A8B2-FDB70BCB7E4E}" name="carpentry" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{A0EF77B2-4729-4E12-8E39-47BA96E4B435}" name="curriculum" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{0D868A6F-DBFB-48C7-8410-1E5BB5C8F0F0}" name="flavor" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{D8BAFA93-D480-48FA-908B-0C153663D169}" name="host" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{A785A2E5-9541-4367-8FC5-939DEBB7BBC9}" name="venue" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{ABCA8351-9FE8-44D3-B755-D8323EB59496}" name="address" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{38057589-3894-4A27-851C-4CA96861394C}" name="country" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{313E781C-A81E-A24B-BA89-66CDC0577AE5}" name="eventbrite" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{FC1C6B11-AA2B-C048-8EE5-C5E41FB39B2D}" name="ready" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{B66BA83E-B5CE-E34C-9152-38647FD62FF3}" name="repository" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{0AD5F170-0BCD-457D-A8B2-FDB70BCB7E4E}" name="carpentry" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{A0EF77B2-4729-4E12-8E39-47BA96E4B435}" name="curriculum" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{0D868A6F-DBFB-48C7-8410-1E5BB5C8F0F0}" name="flavor" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{D8BAFA93-D480-48FA-908B-0C153663D169}" name="host" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{A785A2E5-9541-4367-8FC5-939DEBB7BBC9}" name="venue" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{ABCA8351-9FE8-44D3-B755-D8323EB59496}" name="address" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{38057589-3894-4A27-851C-4CA96861394C}" name="country" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{313E781C-A81E-A24B-BA89-66CDC0577AE5}" name="eventbrite" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FC1C6B11-AA2B-C048-8EE5-C5E41FB39B2D}" name="ready" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{B66BA83E-B5CE-E34C-9152-38647FD62FF3}" name="repository" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{22D4375A-A794-6B47-B643-C95EC659CE88}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{22D4375A-A794-6B47-B643-C95EC659CE88}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1169,14 +1285,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I15" dT="2022-01-26T15:15:17.24" personId="{E5EFCE77-EBFA-E24F-8EA8-47D285FEABD0}" id="{26CB6762-394D-4465-87DD-38F14E90E4B7}">
+    <text>I could be a helper for this workshop, but need to be trained first to get certificate before teaching :-)</text>
+  </threadedComment>
+  <threadedComment ref="I15" dT="2022-03-11T10:08:20.24" personId="{4EA08378-6581-6E41-9AF8-7B009F8C449D}" id="{A0D64598-D39F-3542-B79C-D31479841E93}" parentId="{26CB6762-394D-4465-87DD-38F14E90E4B7}">
+    <text>You can be a helper and an instructor without being a certified instructor - we would just like you to do the training eventually :)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1198,6 +1325,7 @@
     <col min="15" max="15" width="32.1640625" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
     <col min="23" max="23" width="18.5" customWidth="1"/>
     <col min="24" max="24" width="11.83203125" customWidth="1"/>
     <col min="25" max="25" width="69.1640625" customWidth="1"/>
@@ -1287,77 +1415,74 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>94</v>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
       <c r="AH1"/>
     </row>
     <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="O2" s="4"/>
       <c r="W2" s="3"/>
-      <c r="Z2" s="21"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
         <v>44206</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="19" t="str">
+      <c r="C3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="23" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
-        <v>2022-01-10-ds-parallel</v>
-      </c>
-      <c r="P3" s="16" t="s">
+        <v>2022-01-11-ds-parallel</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="16" t="str">
-        <f>IF([1]!Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", [1]!Table1[[#This Row],[slug]]),"")</f>
-        <v>https://github.com/esciencecenter-digital-skills/2021-03-08-swc-gapminder-python-nlesc</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>93</v>
+      <c r="X3" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -1365,33 +1490,59 @@
         <v>44578</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="Z4" s="21"/>
       <c r="AH4"/>
     </row>
-    <row r="5" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>44585</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="W5" s="18"/>
-      <c r="Z5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="23" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-01-25-ds-dl-intro</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1400,75 +1551,128 @@
       <c r="C6" s="11"/>
       <c r="O6" s="5"/>
       <c r="W6" s="3"/>
-      <c r="Z6" s="21"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>44599</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="C7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-02-08-ds-gpu</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="22"/>
+      <c r="X7" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>44606</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="Z7" s="21"/>
-    </row>
-    <row r="8" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>44606</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="W8" s="18"/>
-      <c r="Z8" s="21"/>
+      <c r="L8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="23" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-02-14-ds-cr</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44613</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C9" s="11"/>
       <c r="O9" s="5"/>
       <c r="W9" s="3"/>
-      <c r="Z9" s="21"/>
       <c r="AH9"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1476,73 +1680,130 @@
         <v>44620</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="AH10"/>
+    </row>
+    <row r="11" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>44627</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="Z10" s="21"/>
-      <c r="AH10"/>
-    </row>
-    <row r="11" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>44627</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="Z11" s="21"/>
+      <c r="G11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-03-07-dc-astronomy-nlesc</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="22"/>
+      <c r="X11" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44634</v>
       </c>
       <c r="W12" s="3"/>
-      <c r="Z12" s="21"/>
       <c r="AH12"/>
     </row>
-    <row r="13" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
         <v>44641</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="Z13" s="21"/>
+      <c r="C13" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="20" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-03-22-ds-rpackaging</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="22"/>
+      <c r="X13" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1551,42 +1812,74 @@
       <c r="C14" s="10"/>
       <c r="O14" s="6"/>
       <c r="W14" s="3"/>
-      <c r="Z14" s="21"/>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
         <v>44655</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="Z15" s="21"/>
+      <c r="C15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="20" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-04-06-ds-docker</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44662</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="Z16" s="21"/>
       <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
@@ -1594,13 +1887,12 @@
         <v>44669</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="W17" s="3"/>
-      <c r="Z17" s="21"/>
       <c r="AH17"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -1608,12 +1900,11 @@
         <v>44676</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11"/>
       <c r="O18" s="5"/>
       <c r="W18" s="3"/>
-      <c r="Z18" s="21"/>
       <c r="AH18"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -1621,192 +1912,386 @@
         <v>44683</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="Z19" s="21"/>
       <c r="AH19"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
         <v>44690</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="23" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-05-11-ds-gpu</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>44697</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" s="20" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-05-17-ds-parallel</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="AH22"/>
+    </row>
+    <row r="23" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>44711</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="16" t="str">
+        <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
+        <v>2022-05-30-dc-socsci-python-nlesc</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="W20" s="3"/>
-      <c r="Z20" s="21"/>
-      <c r="AH20"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W21" s="3"/>
-      <c r="Z21" s="21"/>
-      <c r="AH21"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W22" s="3"/>
-      <c r="Z22" s="21"/>
-      <c r="AH22"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W23" s="3"/>
-      <c r="Z23" s="21"/>
-      <c r="AH23"/>
+      <c r="W23" s="17"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44718</v>
+      </c>
       <c r="W24" s="3"/>
-      <c r="Z24" s="21"/>
       <c r="AH24"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W25" s="3"/>
-      <c r="Z25" s="21"/>
-      <c r="AH25"/>
+    <row r="25" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>44725</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44732</v>
+      </c>
       <c r="W26" s="3"/>
-      <c r="Z26" s="21"/>
       <c r="AH26"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W27" s="3"/>
-      <c r="Z27" s="21"/>
-      <c r="AH27"/>
+    <row r="27" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>44739</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44746</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" t="s">
+        <v>133</v>
+      </c>
       <c r="W28" s="3"/>
-      <c r="Z28" s="21"/>
       <c r="AH28"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44753</v>
+      </c>
       <c r="W29" s="3"/>
-      <c r="Z29" s="21"/>
       <c r="AH29"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="18"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="O30" s="8"/>
       <c r="W30" s="3"/>
-      <c r="Z30" s="21"/>
       <c r="AH30"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C31" s="12"/>
-      <c r="D31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="D31" s="18"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="O31" s="8"/>
       <c r="W31" s="3"/>
-      <c r="Z31" s="21"/>
       <c r="AH31"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="Z32" s="21"/>
       <c r="AH32"/>
     </row>
     <row r="33" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="Z33" s="21"/>
       <c r="AH33"/>
     </row>
     <row r="34" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="Z34" s="21"/>
       <c r="AH34"/>
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
-      <c r="D35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="O35" s="8"/>
       <c r="W35" s="3"/>
-      <c r="Z35" s="21"/>
       <c r="AH35"/>
     </row>
     <row r="36" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C36" s="12"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="O36" s="8"/>
       <c r="W36" s="3"/>
-      <c r="Z36" s="21"/>
       <c r="AH36"/>
     </row>
     <row r="37" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="Z37" s="21"/>
       <c r="AH37"/>
     </row>
     <row r="38" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="Z38" s="21"/>
       <c r="AH38"/>
     </row>
     <row r="39" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C39" s="13"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="O39" s="9"/>
       <c r="W39" s="3"/>
-      <c r="Z39" s="21"/>
       <c r="AH39"/>
     </row>
     <row r="40" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="Z40" s="21"/>
       <c r="AH40"/>
     </row>
     <row r="41" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="Z41" s="21"/>
       <c r="AH41"/>
     </row>
     <row r="42" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="Z42" s="21"/>
       <c r="AH42"/>
     </row>
     <row r="43" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C43" s="12"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="O43" s="8"/>
       <c r="W43" s="3"/>
-      <c r="Z43" s="21"/>
       <c r="AH43"/>
     </row>
     <row r="44" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
       <c r="W44" s="3"/>
-      <c r="Z44" s="21"/>
       <c r="AH44"/>
     </row>
     <row r="45" spans="3:34" x14ac:dyDescent="0.2">
       <c r="W45" s="3"/>
-      <c r="Z45" s="21"/>
       <c r="AH45"/>
     </row>
     <row r="46" spans="3:34" x14ac:dyDescent="0.2">
@@ -1819,7 +2304,6 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z46" s="21"/>
     </row>
     <row r="47" spans="3:34" x14ac:dyDescent="0.2">
       <c r="O47" t="str">
@@ -1831,7 +2315,6 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z47" s="21"/>
     </row>
     <row r="48" spans="3:34" x14ac:dyDescent="0.2">
       <c r="O48" t="str">
@@ -1843,9 +2326,8 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z48" s="21"/>
-    </row>
-    <row r="49" spans="15:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O49" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v/>
@@ -1855,9 +2337,8 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z49" s="21"/>
-    </row>
-    <row r="50" spans="15:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O50" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v/>
@@ -1867,9 +2348,8 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z50" s="21"/>
-    </row>
-    <row r="51" spans="15:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O51" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v/>
@@ -1879,9 +2359,8 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z51" s="21"/>
-    </row>
-    <row r="52" spans="15:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O52" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v/>
@@ -1891,36 +2370,36 @@
         <f>IF(Table1[[#This Row],[slug]]&lt;&gt;"",_xlfn.TEXTJOIN("/", TRUE, "https://github.com/esciencecenter-digital-skills", Table1[[#This Row],[slug]]),"")</f>
         <v/>
       </c>
-      <c r="Z52" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="X3">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",X3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q43 Q45:Q52" xr:uid="{66AC3549-B4ED-B149-9AEF-06F082AD083C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q45:Q52 Q3:Q43" xr:uid="{66AC3549-B4ED-B149-9AEF-06F082AD083C}">
       <formula1>INDIRECT(P3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R43 R45:R52" xr:uid="{D9DEE4F1-858F-0C4B-A69B-A7A32EA2032C}">
       <formula1>INDIRECT(SUBSTITUTE(Q3,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X53:Y1048576 P2:P52" xr:uid="{7B01172D-37DD-0049-B9D6-0478E5AFB2CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X53:Y1048576 P1:P1048576" xr:uid="{7B01172D-37DD-0049-B9D6-0478E5AFB2CB}">
       <formula1>Carpentry</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFF035C7-DF52-A948-B18A-E9C4D9BC54CF}">
           <x14:formula1>
             <xm:f>INDIRECT('Validation Data'!$A$1:$E$6)</xm:f>
@@ -1929,39 +2408,69 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62BCAA79-D88B-FE4F-AE07-C75791015CC2}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$R$2:$R$27</xm:f>
+            <xm:f>'Validation Data'!$R$3:$R$31</xm:f>
           </x14:formula1>
-          <xm:sqref>G53:H1048576 F2:G29 F44:G52</xm:sqref>
+          <xm:sqref>G53:H1048576 G16:G29 G2:G14 I15 G44:G52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7774FEE5-A344-5C49-95AA-DA16E30B7EEE}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$T$2:$T$27</xm:f>
+            <xm:f>'Validation Data'!$T$3:$T$31</xm:f>
           </x14:formula1>
-          <xm:sqref>I53:I1048576 H2:H52</xm:sqref>
+          <xm:sqref>I53:I1048576 G15 H2:H52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED93EBEC-9D0D-F34C-88C6-C214EB94B722}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$U$2:$U$27</xm:f>
+            <xm:f>'Validation Data'!$U$3:$U$31</xm:f>
           </x14:formula1>
-          <xm:sqref>J53:J1048576 I2:I52</xm:sqref>
+          <xm:sqref>J53:J1048576 I22:I52 I16:I19 I2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D74D6C2-E677-6E4D-89FA-DF803A4C48FD}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$V$2:$V$27</xm:f>
+            <xm:f>'Validation Data'!$V$3:$V$31</xm:f>
           </x14:formula1>
-          <xm:sqref>K53:K1048576 J2:J9</xm:sqref>
+          <xm:sqref>K53:K1048576 J9 J6 J4 J2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89F144AA-A50F-944C-9602-07FB7ED93E87}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$W$2:$W$27</xm:f>
+            <xm:f>'Validation Data'!$W$3:$W$31</xm:f>
           </x14:formula1>
           <xm:sqref>W53:X1048576 K2:K52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63C0B3BA-FC6D-4ED7-8E00-C12452D485B4}">
           <x14:formula1>
-            <xm:f>'Validation Data'!$V$2:$V$28</xm:f>
+            <xm:f>'Validation Data'!$V$3:$V$32</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J52</xm:sqref>
+          <xm:sqref>J3 J22:J52 J10:J19 J7:J8 J5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D7EC850-C66C-FA43-B230-0899FB408FEC}">
+          <x14:formula1>
+            <xm:f>'Validation Data'!$U$3:$U$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F82BD90-F05C-E54E-920E-6DD42D2CA757}">
+          <x14:formula1>
+            <xm:f>'Validation Data'!$R$3:$R$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:G14 I15 F15 F16:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{837ADABC-5727-6644-9AD6-3811A651E55F}">
+          <x14:formula1>
+            <xm:f>'Validation Data'!$U$2:$U$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>I20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7C1EAD10-A600-3447-9DDF-D4901A059198}">
+          <x14:formula1>
+            <xm:f>'Validation Data'!$V$2:$V$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>J21 J20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1989E478-E2B5-F840-A4E3-BE313B141338}">
+          <x14:formula1>
+            <xm:f>'Validation Data'!$U$2:$U$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>I21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1971,15 +2480,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6FC11-F0F6-480C-AE1E-F89B80304344}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="19.1640625" customWidth="1"/>
@@ -1988,477 +2497,480 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="S1" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="V5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="U7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="W7" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="V10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="S11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="U11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="V11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="W11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="W13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="U15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="W15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="W16" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="S18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2466,222 +2978,302 @@
         <v>15</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="S19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="S20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="T20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="U20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="W20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="R21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="S21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="U21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="W21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="R22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="W22" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="R23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="R24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="S24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="V24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="W24" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="S25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="V25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="W25" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="S26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="W26" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="S27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="T27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="V27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="W27" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="S28" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="V28" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" t="s">
+        <v>59</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>127</v>
+      </c>
+      <c r="S30" t="s">
+        <v>127</v>
+      </c>
+      <c r="T30" t="s">
+        <v>127</v>
+      </c>
+      <c r="U30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V30" t="s">
+        <v>127</v>
+      </c>
+      <c r="W30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" t="s">
+        <v>54</v>
+      </c>
+      <c r="U31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" t="s">
+        <v>128</v>
+      </c>
+      <c r="T32" t="s">
+        <v>128</v>
+      </c>
+      <c r="U32" t="s">
+        <v>128</v>
+      </c>
+      <c r="V32" t="s">
+        <v>128</v>
+      </c>
+      <c r="W32" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:R28">
-    <sortCondition ref="R2:R28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:R30">
+    <sortCondition ref="R3:R30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2691,8 +3283,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C9242AECD975D4DA7B237C2E1E764BE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c17cf1ac27542d444d37c94d4a806c41">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="375943d0-1737-420d-abae-750e225a1f6c" xmlns:ns3="dbccc4ca-e175-4642-95d3-c6632d06f78c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a86557ffa725881dffa61df7e15aa77c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C9242AECD975D4DA7B237C2E1E764BE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c666a5c54797d94899f13d5af6a235f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="375943d0-1737-420d-abae-750e225a1f6c" xmlns:ns3="dbccc4ca-e175-4642-95d3-c6632d06f78c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0987453aeaddabea08484f768e971e5" ns2:_="" ns3:_="">
     <xsd:import namespace="375943d0-1737-420d-abae-750e225a1f6c"/>
     <xsd:import namespace="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
     <xsd:element name="properties">
@@ -2705,13 +3297,15 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2744,38 +3338,45 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c0ad629c-0c64-4cfd-a7c6-02f1c6e4954d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dbccc4ca-e175-4642-95d3-c6632d06f78c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2794,12 +3395,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ba9bfee0-987d-4126-a462-19846f6d7e75}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="dbccc4ca-e175-4642-95d3-c6632d06f78c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2903,7 +3515,12 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="375943d0-1737-420d-abae-750e225a1f6c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dbccc4ca-e175-4642-95d3-c6632d06f78c" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -2917,7 +3534,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EE42FE6-4B63-425F-B6C7-33FA5199598C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7A1C04-83D7-452A-8140-804E44129031}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2938,15 +3555,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C0E574-FBDB-44E9-A84B-01ACC8D8F634}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="375943d0-1737-420d-abae-750e225a1f6c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
+    <ds:schemaRef ds:uri="375943d0-1737-420d-abae-750e225a1f6c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/create_data/Digital Skills Workshops 2022.xlsx
+++ b/create_data/Digital Skills Workshops 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/instructors/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{9031534A-C323-5746-8EA2-042158F0E954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034243B6-9490-7C46-BE33-7C5E1237EC28}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{9031534A-C323-5746-8EA2-042158F0E954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46669865-65EC-6A49-8C8A-1AF867E7CACF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="143">
   <si>
     <t>Week of</t>
   </si>
@@ -290,6 +291,9 @@
     <t>nlesc</t>
   </si>
   <si>
+    <t>R packaging</t>
+  </si>
+  <si>
     <t>2022-03-22</t>
   </si>
   <si>
@@ -308,15 +312,33 @@
     <t>ds-rpackaging</t>
   </si>
   <si>
+    <t>Reproducible Computational Environments Using Docker Containers</t>
+  </si>
+  <si>
     <t>2022-04-06</t>
   </si>
   <si>
     <t>Ask Johan, Francesco, Candace, Sarah</t>
   </si>
   <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
     <t>ds-docker</t>
   </si>
   <si>
+    <t>Netherlands eScience Center (in person, Amsterdam)</t>
+  </si>
+  <si>
+    <t>Science Park 402, 1098 XH Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>Good Friday</t>
   </si>
   <si>
@@ -329,9 +351,24 @@
     <t>May Holidays</t>
   </si>
   <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>Aron Jansen</t>
+  </si>
+  <si>
+    <t>Suvayu Ali</t>
+  </si>
+  <si>
     <t>Hanno, Alessio, maybe Ben</t>
   </si>
   <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
     <t>Djura, Johan, others interested</t>
   </si>
   <si>
@@ -347,7 +384,13 @@
     <t>2022-06-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Francesco, Dafne: could be instructor if needed, but is directly after my holiday, </t>
+    <t>Francesco, Dafne: could be instructor if needed, but is directly after my holiday, Jaro: can be instructor if needed, but is before big deadline so prefers not to</t>
+  </si>
+  <si>
+    <t>dc-socsci</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
   <si>
     <t>Geospatial Python</t>
@@ -365,12 +408,21 @@
     <t>2022-06-30</t>
   </si>
   <si>
+    <t>Luisa Orozco</t>
+  </si>
+  <si>
     <t>2022-07-01</t>
   </si>
   <si>
     <t>2022-07-06</t>
   </si>
   <si>
+    <t>Jaro Camphuijsen</t>
+  </si>
+  <si>
+    <t>Pranav Chandramouli</t>
+  </si>
+  <si>
     <t>swc</t>
   </si>
   <si>
@@ -386,9 +438,6 @@
     <t>dc-genomics</t>
   </si>
   <si>
-    <t>dc-socsci</t>
-  </si>
-  <si>
     <t>dc-geospatial</t>
   </si>
   <si>
@@ -416,9 +465,6 @@
     <t>Helper 3</t>
   </si>
   <si>
-    <t>python</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -431,9 +477,6 @@
     <t>Faruk Diblen</t>
   </si>
   <si>
-    <t>Jaro Camphuijsen</t>
-  </si>
-  <si>
     <t>Jesus Garcia González</t>
   </si>
   <si>
@@ -446,9 +489,6 @@
     <t>Peter Kalverla</t>
   </si>
   <si>
-    <t>Pushpanjali Pawar</t>
-  </si>
-  <si>
     <t>Sarah Alidoost</t>
   </si>
   <si>
@@ -458,46 +498,7 @@
     <t>Yang Liu</t>
   </si>
   <si>
-    <t>Luisa Orozco</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>9:30</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I guess this is not the final date yet? Correct :) </t>
-  </si>
-  <si>
-    <t>Reproducible Computational Environments Using Docker Containers</t>
-  </si>
-  <si>
-    <t>R packaging</t>
-  </si>
-  <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
-    <t>Science Park 402, 1098 XH Amsterdam</t>
-  </si>
-  <si>
-    <t>Netherlands eScience Center (in person, Amsterdam)</t>
-  </si>
-  <si>
-    <t>Aron Jansen</t>
-  </si>
-  <si>
-    <t>Suvayu Ali</t>
+    <t>cancelled</t>
   </si>
 </sst>
 </file>
@@ -590,13 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,17 +635,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1300,10 +1300,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H28:H29"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1425,63 +1425,63 @@
       <c r="W2" s="3"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>44206</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="23" t="str">
+      <c r="O3" s="20" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-01-11-ds-parallel</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="W3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1492,55 +1492,55 @@
       <c r="W4" s="3"/>
       <c r="AH4"/>
     </row>
-    <row r="5" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+    <row r="5" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
         <v>44585</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="23" t="str">
+      <c r="O5" s="20" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-01-25-ds-dl-intro</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="20" t="s">
+      <c r="W5" s="19"/>
+      <c r="X5" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1553,113 +1553,113 @@
       <c r="W6" s="3"/>
       <c r="AH6"/>
     </row>
-    <row r="7" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+    <row r="7" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>44599</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-02-08-ds-gpu</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="U7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="22"/>
-      <c r="X7" s="20" t="s">
+      <c r="W7" s="19"/>
+      <c r="X7" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+    <row r="8" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
         <v>44606</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="23" t="str">
+      <c r="O8" s="20" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-02-14-ds-cr</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="20" t="s">
+      <c r="W8" s="19"/>
+      <c r="X8" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1685,61 +1685,61 @@
       <c r="W10" s="3"/>
       <c r="AH10"/>
     </row>
-    <row r="11" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>44627</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="20" t="str">
+      <c r="O11" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-03-07-dc-astronomy-nlesc</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="U11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="20" t="s">
+      <c r="W11" s="19"/>
+      <c r="X11" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1750,58 +1750,58 @@
       <c r="W12" s="3"/>
       <c r="AH12"/>
     </row>
-    <row r="13" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+    <row r="13" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>44641</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="22" t="s">
+      <c r="J13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="20" t="str">
+      <c r="O13" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-03-22-ds-rpackaging</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="T13" s="20" t="s">
+      <c r="Q13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="22"/>
-      <c r="X13" s="20" t="s">
+      <c r="W13" s="19"/>
+      <c r="X13" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1814,61 +1814,61 @@
       <c r="W14" s="3"/>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+    <row r="15" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>44655</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="C15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" s="20" t="str">
+      <c r="L15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-04-06-ds-docker</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="20" t="s">
+      <c r="Q15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" s="19"/>
+      <c r="X15" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>44662</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W16" s="3"/>
       <c r="AH16"/>
@@ -1887,7 +1887,7 @@
         <v>44669</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7"/>
       <c r="J17" s="7"/>
@@ -1900,7 +1900,7 @@
         <v>44676</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C18" s="11"/>
       <c r="O18" s="5"/>
@@ -1912,188 +1912,203 @@
         <v>44683</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="W19" s="3"/>
       <c r="AH19"/>
     </row>
-    <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>44690</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="O20" s="23" t="str">
+      <c r="I20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O20" s="20" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-05-11-ds-gpu</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="W20" s="22"/>
-      <c r="X20" s="20" t="s">
+      <c r="T20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="W20" s="19"/>
+      <c r="X20" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+    <row r="21" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>44697</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" s="20" t="str">
+      <c r="I21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-05-17-ds-parallel</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="V21" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="W21" s="22"/>
+      <c r="T21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44704</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3"/>
       <c r="AH22"/>
     </row>
-    <row r="23" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:34" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
         <v>44711</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="16" t="s">
+      <c r="C23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="17" t="s">
+      <c r="L23" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="17" t="str">
         <f>_xlfn.TEXTJOIN("-", TRUE, Table1[[#This Row],[startdate]], Table1[[#This Row],[curriculum]], Table1[[#This Row],[flavor]], Table1[[#This Row],[host]])</f>
         <v>2022-05-30-dc-socsci-python-nlesc</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="R23" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S23" s="16" t="s">
+      <c r="R23" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U23" s="16" t="s">
+      <c r="T23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2102,22 +2117,31 @@
       <c r="W24" s="3"/>
       <c r="AH24"/>
     </row>
-    <row r="25" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>44725</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="W25" s="17"/>
+      <c r="C25" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="W25" s="24"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -2126,59 +2150,69 @@
       <c r="W26" s="3"/>
       <c r="AH26"/>
     </row>
-    <row r="27" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+    <row r="27" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>44739</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="D27" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="W27" s="22"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="K27" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="W27" s="24"/>
+    </row>
+    <row r="28" spans="1:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>44746</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L28" t="s">
-        <v>133</v>
-      </c>
-      <c r="W28" s="3"/>
-      <c r="AH28"/>
+      <c r="G28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="W28" s="24"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -2189,7 +2223,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C30" s="12"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="15"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="O30" s="8"/>
@@ -2198,7 +2232,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C31" s="12"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="15"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="O31" s="8"/>
@@ -2225,7 +2259,7 @@
     </row>
     <row r="35" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="15"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="O35" s="8"/>
@@ -2482,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6FC11-F0F6-480C-AE1E-F89B80304344}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2503,52 +2537,52 @@
         <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="R1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="S1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="T1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="U1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="V1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="W1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -2559,47 +2593,47 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="U2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="W2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2607,31 +2641,31 @@
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="R3" t="s">
         <v>52</v>
@@ -2657,51 +2691,51 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="R5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="T5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="U5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="V5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="W5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -2709,48 +2743,48 @@
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="U7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="V7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="W7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -2815,22 +2849,22 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="T11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="U11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="V11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2875,42 +2909,42 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="V14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="W14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="S15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="T15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="U15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="V15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="W15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -2955,22 +2989,22 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="T18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="U18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="W18" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -3001,22 +3035,22 @@
         <v>37</v>
       </c>
       <c r="R20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="T20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="U20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="W20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -3024,27 +3058,27 @@
         <v>70</v>
       </c>
       <c r="R21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="S21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="T21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="U21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="V21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="W21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="R22" t="s">
         <v>33</v>
@@ -3067,68 +3101,68 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="R23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="R24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="T24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="U24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="V24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="W24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="S25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="T25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="U25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="V25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="W25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -3153,42 +3187,42 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="S27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="T27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="U27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="V27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="W27" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="S28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="T28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="U28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="V28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="W28" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -3213,22 +3247,22 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="S30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="T30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="U30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="V30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="W30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -3253,22 +3287,22 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="S32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="T32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="U32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="V32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="W32" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3283,8 +3317,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C9242AECD975D4DA7B237C2E1E764BE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c666a5c54797d94899f13d5af6a235f2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="375943d0-1737-420d-abae-750e225a1f6c" xmlns:ns3="dbccc4ca-e175-4642-95d3-c6632d06f78c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0987453aeaddabea08484f768e971e5" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="375943d0-1737-420d-abae-750e225a1f6c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dbccc4ca-e175-4642-95d3-c6632d06f78c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C9242AECD975D4DA7B237C2E1E764BE" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a7ac7f5f6b6778c0057620fa5ec2efd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="375943d0-1737-420d-abae-750e225a1f6c" xmlns:ns3="dbccc4ca-e175-4642-95d3-c6632d06f78c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d95eb5df06eb1d4c652612d2297f299" ns2:_="" ns3:_="">
     <xsd:import namespace="375943d0-1737-420d-abae-750e225a1f6c"/>
     <xsd:import namespace="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
     <xsd:element name="properties">
@@ -3306,6 +3360,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3371,6 +3426,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dbccc4ca-e175-4642-95d3-c6632d06f78c" elementFormDefault="qualified">
@@ -3513,28 +3573,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="375943d0-1737-420d-abae-750e225a1f6c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dbccc4ca-e175-4642-95d3-c6632d06f78c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDBB668-EFC0-4007-8FDF-6AC14434B285}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C0E574-FBDB-44E9-A84B-01ACC8D8F634}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="375943d0-1737-420d-abae-750e225a1f6c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7A1C04-83D7-452A-8140-804E44129031}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3495EE93-C241-46FA-9108-8B684E91A165}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -3550,29 +3615,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C0E574-FBDB-44E9-A84B-01ACC8D8F634}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="dbccc4ca-e175-4642-95d3-c6632d06f78c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="375943d0-1737-420d-abae-750e225a1f6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDBB668-EFC0-4007-8FDF-6AC14434B285}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>